--- a/任务分配.xlsx
+++ b/任务分配.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24789\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBC6975-B550-4479-9CBC-233008152433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D548C62-458B-4D65-BEDF-55C423DF85AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="4440" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>任务名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文件上传功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作业功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wjceizo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,6 +104,70 @@
   </si>
   <si>
     <t>统稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业提交功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件分享功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生签到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业批阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -190,38 +246,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -516,321 +688,700 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="7">
         <v>44711</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="7">
         <v>44712</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="7">
         <v>44713</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="7">
         <v>44714</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="7">
         <v>44715</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="8">
         <v>44716</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="8">
         <v>44717</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="7">
         <v>44718</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="7">
         <v>44719</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="7">
         <v>44720</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="7">
         <v>44721</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="7">
         <v>44722</v>
       </c>
-      <c r="O1" s="10">
+      <c r="O1" s="8">
         <v>44723</v>
       </c>
-      <c r="P1" s="10">
+      <c r="P1" s="8">
         <v>44724</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="7">
         <v>44725</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="7">
         <v>44726</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="7">
         <v>44727</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="7">
         <v>44728</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="7">
         <v>44729</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2" t="s">
+      <c r="B11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2" t="s">
+      <c r="B13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="25"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="25"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="S21" s="23"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2" t="s">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B30" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="11">
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="K16:M16"/>
     <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/任务分配.xlsx
+++ b/任务分配.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24789\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D548C62-458B-4D65-BEDF-55C423DF85AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0E1220-117C-47C9-92A2-391C17AD117C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,9 +335,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -356,43 +353,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -678,7 +678,7 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -694,61 +694,61 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="6">
         <v>44711</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="6">
         <v>44712</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="6">
         <v>44713</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="6">
         <v>44714</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="6">
         <v>44715</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="7">
         <v>44716</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1" s="7">
         <v>44717</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="6">
         <v>44718</v>
       </c>
-      <c r="K1" s="7">
+      <c r="K1" s="6">
         <v>44719</v>
       </c>
-      <c r="L1" s="7">
+      <c r="L1" s="6">
         <v>44720</v>
       </c>
-      <c r="M1" s="7">
+      <c r="M1" s="6">
         <v>44721</v>
       </c>
-      <c r="N1" s="7">
+      <c r="N1" s="6">
         <v>44722</v>
       </c>
-      <c r="O1" s="8">
+      <c r="O1" s="7">
         <v>44723</v>
       </c>
-      <c r="P1" s="8">
+      <c r="P1" s="7">
         <v>44724</v>
       </c>
-      <c r="Q1" s="7">
+      <c r="Q1" s="6">
         <v>44725</v>
       </c>
-      <c r="R1" s="7">
+      <c r="R1" s="6">
         <v>44726</v>
       </c>
-      <c r="S1" s="7">
+      <c r="S1" s="6">
         <v>44727</v>
       </c>
-      <c r="T1" s="7">
+      <c r="T1" s="6">
         <v>44728</v>
       </c>
-      <c r="U1" s="7">
+      <c r="U1" s="6">
         <v>44729</v>
       </c>
     </row>
@@ -757,22 +757,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
@@ -780,28 +780,28 @@
       <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
@@ -809,7 +809,7 @@
       <c r="U3" s="5"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
@@ -817,18 +817,18 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
@@ -836,7 +836,7 @@
       <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
@@ -845,17 +845,17 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -863,7 +863,7 @@
       <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
@@ -872,17 +872,17 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
@@ -890,7 +890,7 @@
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
@@ -899,17 +899,17 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="21" t="s">
+      <c r="R7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="S7" s="5"/>
@@ -917,7 +917,7 @@
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -926,18 +926,18 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="21" t="s">
+      <c r="S8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="T8" s="5"/>
@@ -950,20 +950,20 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
@@ -971,26 +971,26 @@
       <c r="U9" s="5"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
@@ -998,28 +998,28 @@
       <c r="U10" s="5"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
@@ -1027,26 +1027,26 @@
       <c r="U11" s="5"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -1054,30 +1054,30 @@
       <c r="U12" s="5"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="24" t="s">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="13" t="s">
         <v>35</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -1085,28 +1085,28 @@
       <c r="U13" s="5"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="21" t="s">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="12" t="s">
         <v>35</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -1114,28 +1114,28 @@
       <c r="U14" s="5"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="21" t="s">
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -1143,10 +1143,10 @@
       <c r="U15" s="5"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="5"/>
@@ -1154,17 +1154,17 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="22" t="s">
+      <c r="K16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="23"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="16"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -1172,8 +1172,8 @@
       <c r="U16" s="5"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="5"/>
@@ -1181,17 +1181,17 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="22" t="s">
+      <c r="K17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="25"/>
-      <c r="M17" s="23"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="16"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -1199,10 +1199,10 @@
       <c r="U17" s="5"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="5"/>
@@ -1210,18 +1210,18 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="24" t="s">
+      <c r="N18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="24" t="s">
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="13" t="s">
         <v>35</v>
       </c>
       <c r="R18" s="5"/>
@@ -1230,8 +1230,8 @@
       <c r="U18" s="5"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="5"/>
@@ -1239,18 +1239,18 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="21" t="s">
+      <c r="N19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="21" t="s">
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="12" t="s">
         <v>35</v>
       </c>
       <c r="R19" s="5"/>
@@ -1259,8 +1259,8 @@
       <c r="U19" s="5"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="5"/>
@@ -1268,18 +1268,18 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="21" t="s">
+      <c r="N20" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="21" t="s">
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="12" t="s">
         <v>14</v>
       </c>
       <c r="R20" s="5"/>
@@ -1297,20 +1297,20 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
       <c r="Q21" s="5"/>
-      <c r="R21" s="22" t="s">
+      <c r="R21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="S21" s="23"/>
+      <c r="S21" s="16"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
     </row>
@@ -1371,17 +1371,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="K17:M17"/>
     <mergeCell ref="R21:S21"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="K16:M16"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/任务分配.xlsx
+++ b/任务分配.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\project\Undesigned-programe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0E1220-117C-47C9-92A2-391C17AD117C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAA9BA1-5D90-41F9-9EF5-9410DBE3CE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2208" yWindow="4272" windowWidth="21648" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微信小程序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>作业提交功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,6 +164,10 @@
   </si>
   <si>
     <t>WA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -324,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -347,9 +347,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -359,6 +356,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -374,26 +392,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,16 +687,16 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D11" sqref="D11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.58203125" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -752,7 +761,7 @@
         <v>44729</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -779,8 +788,8 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -808,8 +817,8 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
@@ -817,7 +826,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="9"/>
@@ -835,8 +844,8 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
@@ -848,7 +857,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="5"/>
@@ -862,10 +871,10 @@
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -878,7 +887,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="9"/>
@@ -889,10 +898,10 @@
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -909,15 +918,15 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -937,24 +946,24 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="12" t="s">
+      <c r="S8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="5"/>
@@ -970,18 +979,18 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>21</v>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="5"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="5"/>
@@ -997,19 +1006,19 @@
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>24</v>
+      <c r="B11" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="5"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -1026,17 +1035,17 @@
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="11" t="s">
-        <v>25</v>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="16"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="5"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -1053,27 +1062,27 @@
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>26</v>
+      <c r="B13" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="13" t="s">
-        <v>35</v>
+      <c r="G13" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="J13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="9"/>
@@ -1084,25 +1093,25 @@
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="11" t="s">
-        <v>27</v>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="12" t="s">
-        <v>35</v>
+      <c r="G14" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="J14" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="9"/>
@@ -1113,21 +1122,21 @@
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="11" t="s">
-        <v>28</v>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="5"/>
@@ -1142,12 +1151,12 @@
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>29</v>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1157,11 +1166,11 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
+      <c r="K16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="21"/>
+      <c r="M16" s="22"/>
       <c r="N16" s="5"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
@@ -1171,10 +1180,10 @@
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="11" t="s">
-        <v>30</v>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1184,11 +1193,11 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="16"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22"/>
       <c r="N17" s="5"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
@@ -1198,12 +1207,12 @@
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>31</v>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1216,23 +1225,23 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="13" t="s">
-        <v>35</v>
+      <c r="N18" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="13" t="s">
-        <v>35</v>
+      <c r="Q18" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="11" t="s">
-        <v>32</v>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1245,23 +1254,23 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="12" t="s">
-        <v>35</v>
+      <c r="N19" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
-      <c r="Q19" s="12" t="s">
-        <v>35</v>
+      <c r="Q19" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="11" t="s">
-        <v>33</v>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1274,12 +1283,12 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="12" t="s">
+      <c r="N20" s="11" t="s">
         <v>14</v>
       </c>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
-      <c r="Q20" s="12" t="s">
+      <c r="Q20" s="11" t="s">
         <v>14</v>
       </c>
       <c r="R20" s="5"/>
@@ -1287,9 +1296,9 @@
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1307,14 +1316,14 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="5"/>
-      <c r="R21" s="14" t="s">
+      <c r="R21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="S21" s="16"/>
+      <c r="S21" s="22"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1325,7 +1334,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1337,7 +1346,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1349,7 +1358,7 @@
       </c>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -1361,7 +1370,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1370,18 +1379,21 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="K16:M16"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A20"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="K16:M16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/任务分配.xlsx
+++ b/任务分配.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\project\Undesigned-programe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAA9BA1-5D90-41F9-9EF5-9410DBE3CE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB48635-E9A7-4E91-9370-8CDDFF2C4AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2208" yWindow="4272" windowWidth="21648" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>任务名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,11 +163,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前端界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +234,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -324,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -359,42 +377,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -403,6 +385,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:F11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -789,7 +816,7 @@
       <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -818,17 +845,17 @@
       <c r="U3" s="5"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="20" t="s">
         <v>10</v>
       </c>
+      <c r="G4" s="22"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="5"/>
@@ -845,7 +872,7 @@
       <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
@@ -856,10 +883,10 @@
       <c r="G5" s="5"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="11" t="s">
+      <c r="J5" s="17" t="s">
         <v>10</v>
       </c>
+      <c r="K5" s="19"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -872,7 +899,7 @@
       <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
@@ -886,10 +913,10 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="11" t="s">
+      <c r="M6" s="17" t="s">
         <v>10</v>
       </c>
+      <c r="N6" s="19"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="5"/>
@@ -899,7 +926,7 @@
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
@@ -926,7 +953,7 @@
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -953,44 +980,48 @@
       <c r="U8" s="5"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="24"/>
+      <c r="A9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="24"/>
+      <c r="D10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="5"/>
@@ -1007,26 +1038,26 @@
       <c r="U10" s="5"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="A11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="5"/>
+      <c r="D11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="J11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="19"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="5"/>
@@ -1036,17 +1067,19 @@
       <c r="U11" s="5"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="24" t="s">
+        <v>5</v>
+      </c>
       <c r="B12" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="20" t="s">
+      <c r="D12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="5"/>
@@ -1063,26 +1096,22 @@
       <c r="U12" s="5"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="A13" s="25"/>
       <c r="B13" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="E13" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="9"/>
@@ -1094,25 +1123,27 @@
       <c r="U13" s="5"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="24" t="s">
+        <v>6</v>
+      </c>
       <c r="B14" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="11" t="s">
-        <v>34</v>
+      <c r="G14" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="5"/>
+      <c r="J14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="16"/>
       <c r="N14" s="5"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
@@ -1123,25 +1154,25 @@
       <c r="U14" s="5"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="J15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="19"/>
       <c r="N15" s="5"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
@@ -1152,25 +1183,25 @@
       <c r="U15" s="5"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>22</v>
-      </c>
+      <c r="A16" s="25"/>
       <c r="B16" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="G16" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="22"/>
+      <c r="J16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="19"/>
       <c r="N16" s="5"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
@@ -1181,9 +1212,11 @@
       <c r="U16" s="5"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="27" t="s">
+        <v>22</v>
+      </c>
       <c r="B17" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1193,11 +1226,11 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="22"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="19"/>
       <c r="N17" s="5"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
@@ -1208,11 +1241,9 @@
       <c r="U17" s="5"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>21</v>
-      </c>
+      <c r="A18" s="28"/>
       <c r="B18" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1222,26 +1253,26 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="K18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="18"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="5"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="B19" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1254,13 +1285,13 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="11" t="s">
-        <v>34</v>
+      <c r="N19" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
-      <c r="Q19" s="11" t="s">
-        <v>34</v>
+      <c r="Q19" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -1268,9 +1299,9 @@
       <c r="U19" s="5"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1289,7 +1320,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -1297,10 +1328,10 @@
       <c r="U20" s="5"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="5"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1312,88 +1343,123 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="N21" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="S21" s="22"/>
+      <c r="Q21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="2"/>
+      <c r="A22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="S22" s="19"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>13</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D9:G9"/>
+  <mergeCells count="20">
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D11:G11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/任务分配.xlsx
+++ b/任务分配.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\project\Undesigned-programe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB48635-E9A7-4E91-9370-8CDDFF2C4AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6797E9-11F2-4FC2-9ECF-5C034F05122B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2208" yWindow="4272" windowWidth="21648" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5676" yWindow="1548" windowWidth="21648" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>任务名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,46 +119,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学生签到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>签到统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作业发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作业提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作业批阅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,6 +144,94 @@
   </si>
   <si>
     <t>WD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础信息管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常工作处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授课安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布签到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级信息管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程信息管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教室信息管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师信息管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生信息管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能考勤系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找预训练模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找合适的网络算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录/登出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户密码修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -342,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -371,64 +423,102 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -711,16 +801,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -816,7 +906,7 @@
       <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -845,17 +935,17 @@
       <c r="U3" s="5"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="5"/>
@@ -872,7 +962,7 @@
       <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
@@ -883,10 +973,10 @@
       <c r="G5" s="5"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="19"/>
+      <c r="K5" s="32"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -899,7 +989,7 @@
       <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
@@ -913,10 +1003,10 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="19"/>
+      <c r="N6" s="32"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="5"/>
@@ -926,15 +1016,15 @@
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="5"/>
@@ -945,23 +1035,23 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="5"/>
+      <c r="S7" s="15"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="5"/>
@@ -972,56 +1062,56 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="11" t="s">
+      <c r="R8" s="15"/>
+      <c r="S8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="13"/>
+      <c r="A9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="5"/>
@@ -1039,25 +1129,25 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="20" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="19"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="32"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="5"/>
@@ -1067,19 +1157,19 @@
       <c r="U11" s="5"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>5</v>
+      <c r="A12" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="5"/>
@@ -1096,54 +1186,48 @@
       <c r="U12" s="5"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>6</v>
-      </c>
+      <c r="A14" s="23"/>
       <c r="B14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="12" t="s">
-        <v>9</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="16"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
       <c r="N14" s="5"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
@@ -1154,26 +1238,26 @@
       <c r="U14" s="5"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+      <c r="A15" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="B15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="38" t="s">
         <v>9</v>
       </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="5"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="29"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="5"/>
@@ -1183,154 +1267,146 @@
       <c r="U15" s="5"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16" t="s">
         <v>9</v>
       </c>
+      <c r="G16" s="34"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="5"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="13"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>22</v>
-      </c>
+      <c r="A17" s="24"/>
       <c r="B17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="41" t="s">
+        <v>9</v>
+      </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="5"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="13"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="5"/>
+      <c r="J18" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="43"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="13"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>21</v>
-      </c>
+      <c r="A19" s="24"/>
       <c r="B19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="12" t="s">
-        <v>14</v>
-      </c>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="35"/>
+      <c r="N19" s="5"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
-      <c r="Q19" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="5"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
-      <c r="Q20" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
+      <c r="A21" s="25" t="s">
+        <v>32</v>
+      </c>
       <c r="B21" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1339,127 +1415,355 @@
       <c r="G21" s="5"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="5"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
-      <c r="Q21" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="13"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="17" t="s">
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="S29" s="45"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="U30" s="13"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="S22" s="19"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="S31" s="18"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>7</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B37" t="s">
         <v>9</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D37" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>8</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B38" t="s">
         <v>10</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D38" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>11</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B39" t="s">
         <v>12</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D39" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>13</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B40" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
+  <mergeCells count="17">
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="D11:G11"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="R29:S29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/任务分配.xlsx
+++ b/任务分配.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\project\Undesigned-programe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6797E9-11F2-4FC2-9ECF-5C034F05122B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79841477-A64A-4D93-AC84-0993AC68561B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5676" yWindow="1548" windowWidth="21648" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,52 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -499,6 +454,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -508,18 +472,56 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -906,7 +908,7 @@
       <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -935,17 +937,17 @@
       <c r="U3" s="5"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="5"/>
@@ -962,7 +964,7 @@
       <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
@@ -973,10 +975,10 @@
       <c r="G5" s="5"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -989,7 +991,7 @@
       <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
@@ -1003,10 +1005,10 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="32"/>
+      <c r="N6" s="31"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="5"/>
@@ -1016,7 +1018,7 @@
       <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1043,7 +1045,7 @@
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1077,11 +1079,11 @@
         <v>27</v>
       </c>
       <c r="C9" s="15"/>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="15"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -1106,12 +1108,12 @@
         <v>28</v>
       </c>
       <c r="C10" s="15"/>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="5"/>
@@ -1133,21 +1135,21 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="32"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="31"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="5"/>
@@ -1157,19 +1159,19 @@
       <c r="U11" s="5"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="5"/>
@@ -1186,7 +1188,7 @@
       <c r="U12" s="5"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="10" t="s">
         <v>50</v>
       </c>
@@ -1211,16 +1213,16 @@
       <c r="U13" s="13"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="32"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="15"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1238,26 +1240,26 @@
       <c r="U14" s="5"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="36" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="15"/>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="40"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="34"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="29"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="17"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="5"/>
@@ -1267,7 +1269,7 @@
       <c r="U15" s="5"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="10" t="s">
         <v>39</v>
       </c>
@@ -1277,13 +1279,13 @@
       <c r="F16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="34"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
       <c r="N16" s="13"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
@@ -1294,7 +1296,7 @@
       <c r="U16" s="13"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="10" t="s">
         <v>40</v>
       </c>
@@ -1302,15 +1304,15 @@
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="45" t="s">
         <v>9</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
       <c r="N17" s="13"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
@@ -1321,7 +1323,7 @@
       <c r="U17" s="13"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="10" t="s">
         <v>41</v>
       </c>
@@ -1329,15 +1331,15 @@
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="34"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="42" t="s">
         <v>9</v>
       </c>
       <c r="K18" s="43"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
       <c r="N18" s="13"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
@@ -1348,7 +1350,7 @@
       <c r="U18" s="13"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="10" t="s">
         <v>42</v>
       </c>
@@ -1359,12 +1361,12 @@
       <c r="G19" s="15"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
       <c r="L19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="35"/>
+      <c r="M19" s="20"/>
       <c r="N19" s="5"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
@@ -1375,7 +1377,7 @@
       <c r="U19" s="5"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="10" t="s">
         <v>43</v>
       </c>
@@ -1386,9 +1388,9 @@
       <c r="G20" s="15"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="16" t="s">
         <v>9</v>
       </c>
@@ -1402,7 +1404,7 @@
       <c r="U20" s="5"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="32" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -1416,9 +1418,9 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="15"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
       <c r="N21" s="5"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
@@ -1429,7 +1431,7 @@
       <c r="U21" s="5"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="10" t="s">
         <v>34</v>
       </c>
@@ -1454,7 +1456,7 @@
       <c r="U22" s="13"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="10" t="s">
         <v>35</v>
       </c>
@@ -1479,7 +1481,7 @@
       <c r="U23" s="13"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="10" t="s">
         <v>36</v>
       </c>
@@ -1504,7 +1506,7 @@
       <c r="U24" s="13"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="10" t="s">
         <v>37</v>
       </c>
@@ -1529,7 +1531,7 @@
       <c r="U25" s="13"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="10" t="s">
         <v>23</v>
       </c>
@@ -1541,9 +1543,9 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="15"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
       <c r="N26" s="5"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
@@ -1554,7 +1556,7 @@
       <c r="U26" s="5"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="32" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -1571,7 +1573,7 @@
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="44" t="s">
+      <c r="N27" s="23" t="s">
         <v>9</v>
       </c>
       <c r="O27" s="9"/>
@@ -1583,7 +1585,7 @@
       <c r="U27" s="13"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="10" t="s">
         <v>45</v>
       </c>
@@ -1610,7 +1612,7 @@
       <c r="U28" s="13"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="10" t="s">
         <v>47</v>
       </c>
@@ -1629,15 +1631,15 @@
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="13"/>
-      <c r="R29" s="45" t="s">
+      <c r="R29" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="S29" s="45"/>
+      <c r="S29" s="44"/>
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="10" t="s">
         <v>48</v>
       </c>
@@ -1683,10 +1685,10 @@
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="5"/>
-      <c r="R31" s="17" t="s">
+      <c r="R31" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="S31" s="18"/>
+      <c r="S31" s="40"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
     </row>
@@ -1747,15 +1749,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A26"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="R31:S31"/>
@@ -1764,6 +1757,15 @@
     <mergeCell ref="J11:N11"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="R29:S29"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
